--- a/Project 2/albb-salaries-2003_pivot_exercise.xlsx
+++ b/Project 2/albb-salaries-2003_pivot_exercise.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamas\Documents\GitHub\Udactity_Data_foundations_nanodegree\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9676FCC4-1BC3-4B7E-AD24-B08C1C371425}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BC4272-9B95-456B-909C-6DE7CF1949AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="albb-salaries-2003 (3)" sheetId="1" r:id="rId1"/>
+    <sheet name="Pivot" sheetId="4" r:id="rId1"/>
+    <sheet name="albb-salaries-2003" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="20" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="411">
   <si>
     <t>Team</t>
   </si>
@@ -1238,12 +1242,27 @@
   </si>
   <si>
     <t>Zimmerman, Jeff</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Sum of Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1721,9 +1740,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1780,6 +1804,3264 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Stefanovits Tamás" refreshedDate="43450.552952893515" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="382" xr:uid="{76B3F6E2-81D7-4D33-B629-94C867B98428}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D1048576" sheet="albb-salaries-2003"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Team" numFmtId="0">
+      <sharedItems containsBlank="1" count="15">
+        <s v="New York Yankees"/>
+        <s v="Anaheim Angels"/>
+        <s v="Boston Red Sox"/>
+        <s v="Cleveland Indians"/>
+        <s v="Toronto Blue Jays "/>
+        <s v="Baltimore Orioles"/>
+        <s v="Tampa Bay Devil Rays"/>
+        <s v="Kansas City Royals"/>
+        <s v="Minnesota Twins"/>
+        <s v="Chicago White Sox"/>
+        <s v="Detroit Tigers"/>
+        <s v="Seattle Mariners"/>
+        <s v="Oakland Athletics"/>
+        <s v="Texas Rangers"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Player" numFmtId="0">
+      <sharedItems containsBlank="1" count="382">
+        <s v="Acevedo, Juan"/>
+        <s v="Anderson, Jason"/>
+        <s v="Clemens, Roger"/>
+        <s v="Contreras, Jose"/>
+        <s v="Flaherty, John"/>
+        <s v="Giambi, Jason"/>
+        <s v="Hammond, Chris"/>
+        <s v="Hitchcock, Sterling"/>
+        <s v="Jeter, Derek"/>
+        <s v="Johnson, Nick"/>
+        <s v="Karsay, Steve"/>
+        <s v="Latham, Chris"/>
+        <s v="Liever, Jon"/>
+        <s v="Matsui, Hideki"/>
+        <s v="Mondesi, Raul"/>
+        <s v="Mussina, Mike"/>
+        <s v="Osuna, Antonio"/>
+        <s v="Pettitte, Andy"/>
+        <s v="Posada, Jorge"/>
+        <s v="Rivera, Mariano"/>
+        <s v="Soriano, Alfonso"/>
+        <s v="Trammell, Bubba"/>
+        <s v="Ventura, Robin"/>
+        <s v="Weaver, Jeff"/>
+        <s v="Wells, David"/>
+        <s v="Williams, Bernie"/>
+        <s v="Wilson, Enrique"/>
+        <s v="Zeile, Todd"/>
+        <s v="Anderson, Garret"/>
+        <s v="Appier, Kevin"/>
+        <s v="Callaway, Mickey"/>
+        <s v="Donnelly, Brendan"/>
+        <s v="Eckstein, David"/>
+        <s v="Erstad, Darin"/>
+        <s v="Fullmer, Brad"/>
+        <s v="Gil, Benji"/>
+        <s v="Glaus, Troy"/>
+        <s v="Kennedy, Adam"/>
+        <s v="Lackey, John"/>
+        <s v="Molina, Benjie"/>
+        <s v="Molina, Jose"/>
+        <s v="Ortiz, Ramon"/>
+        <s v="Owens, Eric"/>
+        <s v="Percival, Troy"/>
+        <s v="Ramirez, Julio"/>
+        <s v="Rodriquez, Francisco"/>
+        <s v="Salmon, Tim"/>
+        <s v="Schoeneweis, Scott"/>
+        <s v="Sele, Aaron"/>
+        <s v="Shields, Scot"/>
+        <s v="Spiezio, Scott"/>
+        <s v="Washburn, Jarrod"/>
+        <s v="Weber, Ben"/>
+        <s v="Wise, Matt"/>
+        <s v="Wooten, Shawn"/>
+        <s v="Burkett, John"/>
+        <s v="Damon, Johnny"/>
+        <s v="Embree, Alan"/>
+        <s v="Fossum, Casey"/>
+        <s v="Fox, Chad"/>
+        <s v="Garciaparra, Nomar"/>
+        <s v="Giambi, Jeremy"/>
+        <s v="Gonzalez, Dicky"/>
+        <s v="Hillenbrand, Shea"/>
+        <s v="Howry, Bobby"/>
+        <s v="Jackson, Damian"/>
+        <s v="Lowe, Derek"/>
+        <s v="Lyon, Brandon"/>
+        <s v="Martinez, Pedro"/>
+        <s v="Mendoza, Ramiro"/>
+        <s v="Millar, Kevin"/>
+        <s v="Mirabelli, Doug"/>
+        <s v="Mueller, Bill"/>
+        <s v="Nixon, Trot"/>
+        <s v="Ortiz, David"/>
+        <s v="Person, Robert"/>
+        <s v="Ramirez, Manny"/>
+        <s v="Timlin, Mike"/>
+        <s v="Varitek, Jason"/>
+        <s v="Wakefield, Tim"/>
+        <s v="Walker, Todd"/>
+        <s v="White, Matt"/>
+        <s v="Anderson, Brian"/>
+        <s v="Baez, Danys"/>
+        <s v="Bard, Josh"/>
+        <s v="Bere, Jason"/>
+        <s v="Blake, Casey"/>
+        <s v="Bradley, Milton"/>
+        <s v="Broussard, Benjamin"/>
+        <s v="Burks, Ellis"/>
+        <s v="Davis, Jason"/>
+        <s v="Garcia, Karim"/>
+        <s v="Gutierrez, Ricky"/>
+        <s v="Hafner, Travis"/>
+        <s v="Laker, Tim"/>
+        <s v="Lawton, Matt"/>
+        <s v="Lee, Cliff"/>
+        <s v="McDonald, John"/>
+        <s v="Mulholland, Terry"/>
+        <s v="Myette, Aaron"/>
+        <s v="Phillips, Brandon"/>
+        <s v="Riske, David"/>
+        <s v="Rodriguez, Ricardo"/>
+        <s v="Sabathia, CC"/>
+        <s v="Sadler, Carl"/>
+        <s v="Santiago, Jose"/>
+        <s v="Selby, Bill"/>
+        <s v="Spencer, Shane"/>
+        <s v="Traber, Billy"/>
+        <s v="Vizquel, Omar"/>
+        <s v="Westbrook, Jake"/>
+        <s v="Wickman, Bob"/>
+        <s v="Wohlers, Mark"/>
+        <s v="Berg, Dave"/>
+        <s v="Bordick, Mike"/>
+        <s v="Catalanotto, Frank"/>
+        <s v="Creek, Doug"/>
+        <s v="Delgado, Carlos"/>
+        <s v="Escobar, Kelvim"/>
+        <s v="File, Bob"/>
+        <s v="Halladay, Roy"/>
+        <s v="Hendrickson, Mark"/>
+        <s v="Hinske, Eric"/>
+        <s v="Huckaby, Ken"/>
+        <s v="Hudson, Orlando"/>
+        <s v="Lidle, Cory"/>
+        <s v="Linton, Doug"/>
+        <s v="Lopez, Aquilino"/>
+        <s v="Miller, Trever"/>
+        <s v="Myers, Greg"/>
+        <s v="Phelps, Josh"/>
+        <s v="Politte, Cliff"/>
+        <s v="Stewart, Shannon"/>
+        <s v="Sturtze, Tanyon"/>
+        <s v="Tam, Jeff"/>
+        <s v="Walker, Pete"/>
+        <s v="Wells, Vernon"/>
+        <s v="Werth, Jayson"/>
+        <s v="Wilson, Tom"/>
+        <s v="Woodward, Chris"/>
+        <s v="Batista, Tony"/>
+        <s v="Bauer, Rick"/>
+        <s v="Bedard, Erik"/>
+        <s v="Belle, Albert"/>
+        <s v="Conine, Jeff"/>
+        <s v="Cordova, Marty"/>
+        <s v="Cruz, Deivi"/>
+        <s v="Daal, Omar"/>
+        <s v="Erickson, Scott"/>
+        <s v="Fordyce, Brook"/>
+        <s v="Gibbons, Jay"/>
+        <s v="Gil, Geronimo"/>
+        <s v="Groom, Buddy"/>
+        <s v="Hairston, Jerry"/>
+        <s v="Helling, Rick"/>
+        <s v="Hentgen, Pat"/>
+        <s v="Johson, Jason"/>
+        <s v="Julio, Jorge"/>
+        <s v="Leon, Jose"/>
+        <s v="Ligtenberg, Kerry"/>
+        <s v="Lopez, Rodrigo"/>
+        <s v="Matthews, Gary"/>
+        <s v="Mora, Melvin"/>
+        <s v="Morban, Jose"/>
+        <s v="Ponson, Sidney"/>
+        <s v="Roberts, Willis"/>
+        <s v="Ryan, BJ"/>
+        <s v="Segui, David"/>
+        <s v="Surhoff, BJ"/>
+        <s v="Abernathy, Brent"/>
+        <s v="Anderson, Marlon"/>
+        <s v="Baldelli, Rocco"/>
+        <s v="Bierbrodt, Nick"/>
+        <s v="Carter, Lance"/>
+        <s v="Colome, Jesus"/>
+        <s v="Crawford, Carl"/>
+        <s v="Grieve, Ben"/>
+        <s v="Hall, Toby"/>
+        <s v="Harper, Travis"/>
+        <s v="Huff, Aubrey"/>
+        <s v="Kennedy, Joe"/>
+        <s v="Lee, Travis"/>
+        <s v="Martin, Al"/>
+        <s v="McClung, Seth"/>
+        <s v="Ordonez, Rey"/>
+        <s v="Parque, Jim"/>
+        <s v="Parris, Steve"/>
+        <s v="Rolls, Damian"/>
+        <s v="Seay, Bobby"/>
+        <s v="Shumpert, Terry"/>
+        <s v="Sosa, Jorge"/>
+        <s v="Valentin, Javier"/>
+        <s v="Venafro, Mike"/>
+        <s v="Zambrano, Victor"/>
+        <s v="Affeldt, Jeremy"/>
+        <s v="Asencio, Miguel"/>
+        <s v="Beltran, Carlos"/>
+        <s v="Berger, Grandon"/>
+        <s v="Berroa, Angel"/>
+        <s v="Brown, Dermal"/>
+        <s v="Bukvich, Ryan"/>
+        <s v="Carrasco, DJ"/>
+        <s v="Difelice, Mike"/>
+        <s v="Febles, Carlos"/>
+        <s v="George, Chris"/>
+        <s v="Grimsley, Jason"/>
+        <s v="Harvey, Ken"/>
+        <s v="Hernandez, Runelvys"/>
+        <s v="Ibanez, Raul"/>
+        <s v="Johnson, Rontrez"/>
+        <s v="Lopez, Albie"/>
+        <s v="Lopez, Mendy"/>
+        <s v="MacDougal, Mike"/>
+        <s v="May, Darrell"/>
+        <s v="Mayne, Brent"/>
+        <s v="Randa, Joe"/>
+        <s v="Relaford, Desi"/>
+        <s v="Sweeney, Mike"/>
+        <s v="Tucker, Michael"/>
+        <s v="Wilson, Kris"/>
+        <s v="Cuddyer, Michael"/>
+        <s v="Fetters, Mike"/>
+        <s v="Fiore, Tony"/>
+        <s v="Gomez, Chris"/>
+        <s v="Guardado, Eddie"/>
+        <s v="Guzman, Cristian"/>
+        <s v="Hawkins, Latroy"/>
+        <s v="Hocking, Denny"/>
+        <s v="Hunter, Torii"/>
+        <s v="Jones, Jacque"/>
+        <s v="Kielty, Bobby"/>
+        <s v="Koskie, Corey"/>
+        <s v="Lecroy, Matt"/>
+        <s v="Lohse, Kyle"/>
+        <s v="Mays, Joe"/>
+        <s v="Mientkiewicz, Doug"/>
+        <s v="Milton, Eric"/>
+        <s v="Mohr, Dustan"/>
+        <s v="Pierzynski, AJ"/>
+        <s v="Prince, Tom"/>
+        <s v="Radke, Brad"/>
+        <s v="Reed, Rick"/>
+        <s v="Rivas, Luis"/>
+        <s v="Rogers, Kenny"/>
+        <s v="Romero, JC"/>
+        <s v="Santana, Johan"/>
+        <s v="Alomar Jr, Sandy"/>
+        <s v="Buehrle, Mark"/>
+        <s v="Colon, Bartolo"/>
+        <s v="Crede, Joe"/>
+        <s v="Daubach, Brian"/>
+        <s v="Garland, Jon"/>
+        <s v="Glover, Gary"/>
+        <s v="Gordon, Tom"/>
+        <s v="Graffanino, Tony"/>
+        <s v="Jimenez, D'angelo"/>
+        <s v="Koch, Billy"/>
+        <s v="Konerko, Paul"/>
+        <s v="Lee, Carlos"/>
+        <s v="Loaiza, Esteban"/>
+        <s v="Marte, Damaso"/>
+        <s v="Olivo, Miguel"/>
+        <s v="Ordonez, Magglio"/>
+        <s v="Paul, Josh"/>
+        <s v="Rios, Armando"/>
+        <s v="Rowand, Aaron"/>
+        <s v="Stewart, Josh"/>
+        <s v="Thomas, Frank"/>
+        <s v="Valentin, Jose"/>
+        <s v="White, Ribk"/>
+        <s v="Wright, Danny"/>
+        <s v="Wunsch, Kelly"/>
+        <s v="Anderson, Matt"/>
+        <s v="Bernero, Adam"/>
+        <s v="Bocachica, Hiram"/>
+        <s v="Bonderman, Jeremy"/>
+        <s v="Cornejo, Nate"/>
+        <s v="German, Franklyn"/>
+        <s v="Halter, Shane"/>
+        <s v="Higginson, Bobby"/>
+        <s v="Infante, Omar"/>
+        <s v="Inge, Brandon"/>
+        <s v="Kingsale, Eugene"/>
+        <s v="Knotts, Gary"/>
+        <s v="Ledezma, Wilfredo"/>
+        <s v="Maroth, Mike"/>
+        <s v="Munson, Eric"/>
+        <s v="Palmer, Dean"/>
+        <s v="Paquette, Craig"/>
+        <s v="Patterson, Danny"/>
+        <s v="Pena, Carlos"/>
+        <s v="Roney, Matt"/>
+        <s v="Santiago, Ramon"/>
+        <s v="Sparks, Steve"/>
+        <s v="Spurling, Chris"/>
+        <s v="Walbeck, Matt"/>
+        <s v="Walker, Jamie"/>
+        <s v="Young, Dmitri"/>
+        <s v="Bloomquist, Willie"/>
+        <s v="Boone, Bret"/>
+        <s v="Borders, Pat"/>
+        <s v="Cameron, Mike"/>
+        <s v="Carrara, Giovanni"/>
+        <s v="Cirillo, Jeff"/>
+        <s v="Colbrunn, Greg"/>
+        <s v="Davis, Ben"/>
+        <s v="Franklin, Ryan"/>
+        <s v="Garcia, Freddy"/>
+        <s v="Guillen, Carlos"/>
+        <s v="Hasegawa, Shigetoshi"/>
+        <s v="Mabry, John"/>
+        <s v="Martinez, Edgar"/>
+        <s v="Mateo, Julio"/>
+        <s v="McLemore, Mark"/>
+        <s v="Meche, Gil"/>
+        <s v="Moyer, Jamie"/>
+        <s v="Nelson, Jeff"/>
+        <s v="Olerud, John"/>
+        <s v="Pineiro, Joel"/>
+        <s v="Rhodes, Arthur"/>
+        <s v="Sasaki, Kazuhiro"/>
+        <s v="Snelling, Chris"/>
+        <s v="Suzuki, Ichiro"/>
+        <s v="Wilson, Dan"/>
+        <s v="Winn, Randy"/>
+        <s v="Bowie, Micah"/>
+        <s v="Bradford, Chad"/>
+        <s v="Byrnes, Eric"/>
+        <s v="Chavez, Eric"/>
+        <s v="Durazo, Erubiel"/>
+        <s v="Dye, Jermaine"/>
+        <s v="Ellis, Mark"/>
+        <s v="Fikac, Jeremy"/>
+        <s v="Foulke, Keith"/>
+        <s v="Gant, Ron"/>
+        <s v="Halama, John"/>
+        <s v="Hatteberg, Scott"/>
+        <s v="Hernandez, Ramon"/>
+        <s v="Hudson, Tim"/>
+        <s v="Johnson, Mark L"/>
+        <s v="Lilly, Ted"/>
+        <s v="Long, Terrence"/>
+        <s v="Mecir, Jim"/>
+        <s v="Menechino, Frank"/>
+        <s v="Mulder, Mark"/>
+        <s v="Neu, Mike"/>
+        <s v="Piatt, Adam"/>
+        <s v="Rincon, Ricardo"/>
+        <s v="Singleton, Chris"/>
+        <s v="Tejada, Miguel"/>
+        <s v="Zito, Barry"/>
+        <s v="Blalock, Hank"/>
+        <s v="Clark, Jermaine"/>
+        <s v="Cordero, Francisco"/>
+        <s v="Diaz, Einar"/>
+        <s v="Everett, Carl"/>
+        <s v="Fultz, Aaron"/>
+        <s v="Garcia, Reynaldo"/>
+        <s v="Glanville, Doug"/>
+        <s v="Gonzalez, Juan"/>
+        <s v="Greene, Todd"/>
+        <s v="Greer, Rusty"/>
+        <s v="Kreuter, Chad"/>
+        <s v="Lamb, Mike"/>
+        <s v="Lewis, Colby"/>
+        <s v="Mench, Kevin"/>
+        <s v="Nitkowski, CJ"/>
+        <s v="Palmeiro, Rafael"/>
+        <s v="Park, Chan Ho"/>
+        <s v="Perry, Herbert"/>
+        <s v="Powell, Jay"/>
+        <s v="Rodriguez, Alex"/>
+        <s v="Sierra, Ruben"/>
+        <s v="Teixeira, Mark"/>
+        <s v="Thomson, John"/>
+        <s v="Urbina, Ugueth"/>
+        <s v="Valdes, Ismael"/>
+        <s v="Van Poppel, Todd"/>
+        <s v="Yan, Esteban"/>
+        <s v="Young, Mike B"/>
+        <s v="Zimmerman, Jeff"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Salary" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="300000" maxValue="22000000"/>
+    </cacheField>
+    <cacheField name="Position" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
+        <s v="Pitcher"/>
+        <s v="Catcher"/>
+        <s v="First Baseman"/>
+        <s v="Shortstop"/>
+        <s v="Outfielder"/>
+        <s v="Second Baseman"/>
+        <s v="Third Baseman"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="382">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="900000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="10100000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="5500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="750000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="11428571"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="2200000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="6000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="15600000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="364100"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="5000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="400000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="550000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <n v="6000000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <n v="13000000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <n v="12000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <n v="2400000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <n v="11500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <n v="8000000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <n v="10500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <n v="800000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <n v="2500000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <n v="5000000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <n v="4150000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <n v="3250000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <n v="12357143"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <n v="700000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <n v="1500000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <n v="5350000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="29"/>
+    <n v="11500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <n v="302500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <n v="325000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="32"/>
+    <n v="425000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="33"/>
+    <n v="7250000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="34"/>
+    <n v="1000000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="35"/>
+    <n v="725000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="36"/>
+    <n v="7250000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="37"/>
+    <n v="2270000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="38"/>
+    <n v="315000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="39"/>
+    <n v="1425000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="40"/>
+    <n v="320000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="41"/>
+    <n v="2266667"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="42"/>
+    <n v="925000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="43"/>
+    <n v="7833333"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="44"/>
+    <n v="300000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="45"/>
+    <n v="312500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="46"/>
+    <n v="9900000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="47"/>
+    <n v="1425000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="48"/>
+    <n v="8166667"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="49"/>
+    <n v="305000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="50"/>
+    <n v="4250000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="51"/>
+    <n v="3875000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="52"/>
+    <n v="375000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="53"/>
+    <n v="302500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="54"/>
+    <n v="337500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="55"/>
+    <n v="5500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="56"/>
+    <n v="7500000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="57"/>
+    <n v="3000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="58"/>
+    <n v="324500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="59"/>
+    <n v="500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="60"/>
+    <n v="11000000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="61"/>
+    <n v="2000000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="62"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="63"/>
+    <n v="407500"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="64"/>
+    <n v="1700000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="65"/>
+    <n v="625000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="66"/>
+    <n v="3625000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="67"/>
+    <n v="309500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="68"/>
+    <n v="15500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="69"/>
+    <n v="2900000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="70"/>
+    <n v="2000000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="71"/>
+    <n v="805000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="72"/>
+    <n v="2100000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="73"/>
+    <n v="4000000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="74"/>
+    <n v="1250000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="75"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="76"/>
+    <n v="20000000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="77"/>
+    <n v="1850000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="78"/>
+    <n v="4700000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="79"/>
+    <n v="4000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="80"/>
+    <n v="3450000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="81"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="82"/>
+    <n v="1500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="83"/>
+    <n v="5125000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="84"/>
+    <n v="302100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="85"/>
+    <n v="1000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="86"/>
+    <n v="330000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="87"/>
+    <n v="314300"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="88"/>
+    <n v="303000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="89"/>
+    <n v="7166667"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="90"/>
+    <n v="301100"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="91"/>
+    <n v="900000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="92"/>
+    <n v="3916667"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="93"/>
+    <n v="302200"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="94"/>
+    <n v="400000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="95"/>
+    <n v="6750000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="96"/>
+    <n v="300900"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="97"/>
+    <n v="314400"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="98"/>
+    <n v="500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="99"/>
+    <n v="307500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="100"/>
+    <n v="300900"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="101"/>
+    <n v="314000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="102"/>
+    <n v="302400"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="103"/>
+    <n v="1100000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="104"/>
+    <n v="303200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="105"/>
+    <n v="600000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="106"/>
+    <n v="325000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="107"/>
+    <n v="600000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="108"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="109"/>
+    <n v="5500000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="110"/>
+    <n v="305500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="111"/>
+    <n v="6000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="112"/>
+    <n v="2600000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="113"/>
+    <n v="700000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="114"/>
+    <n v="1000000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="115"/>
+    <n v="2200000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="116"/>
+    <n v="700000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="117"/>
+    <n v="18700000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="118"/>
+    <n v="3900000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="119"/>
+    <n v="310000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="120"/>
+    <n v="3825000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="121"/>
+    <n v="302000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="122"/>
+    <n v="600000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="123"/>
+    <n v="313000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="124"/>
+    <n v="313000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="125"/>
+    <n v="5350000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="126"/>
+    <n v="350000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="127"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="128"/>
+    <n v="305000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="129"/>
+    <n v="800000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="130"/>
+    <n v="320000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="131"/>
+    <n v="845000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="132"/>
+    <n v="6200000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="133"/>
+    <n v="1000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="134"/>
+    <n v="600000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="135"/>
+    <n v="425000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="136"/>
+    <n v="520000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="137"/>
+    <n v="300000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="138"/>
+    <n v="316000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="139"/>
+    <n v="775000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="140"/>
+    <n v="6400000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="141"/>
+    <n v="325000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="142"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="143"/>
+    <n v="13000000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="144"/>
+    <n v="4250000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="145"/>
+    <n v="3100000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="146"/>
+    <n v="1000000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="147"/>
+    <n v="3000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="148"/>
+    <n v="7030000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="149"/>
+    <n v="3500000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="150"/>
+    <n v="375000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="151"/>
+    <n v="330000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="152"/>
+    <n v="3000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="153"/>
+    <n v="1550000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="154"/>
+    <n v="1000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="155"/>
+    <n v="1200000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="156"/>
+    <n v="2900000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="157"/>
+    <n v="350000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="158"/>
+    <n v="305000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="159"/>
+    <n v="1200000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="160"/>
+    <n v="325000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="161"/>
+    <n v="900000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="162"/>
+    <n v="1725000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="163"/>
+    <n v="300000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="164"/>
+    <n v="4250000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="165"/>
+    <n v="3500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="166"/>
+    <n v="762500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="167"/>
+    <n v="7000000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="168"/>
+    <n v="1000000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="169"/>
+    <n v="300000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="170"/>
+    <n v="600000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="171"/>
+    <n v="300000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="172"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="173"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="174"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="175"/>
+    <n v="300000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="176"/>
+    <n v="5500000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="177"/>
+    <n v="300000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="178"/>
+    <n v="325000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="179"/>
+    <n v="325000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="180"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="181"/>
+    <n v="500000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="182"/>
+    <n v="300000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="183"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="184"/>
+    <n v="6500000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="185"/>
+    <n v="400000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="186"/>
+    <n v="400000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="187"/>
+    <n v="300000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="188"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="189"/>
+    <n v="300000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="190"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="191"/>
+    <n v="300000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="192"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="193"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="194"/>
+    <n v="313000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="195"/>
+    <n v="314000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="196"/>
+    <n v="6000000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="197"/>
+    <n v="304000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="198"/>
+    <n v="302000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="199"/>
+    <n v="309500"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="200"/>
+    <n v="304500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="201"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="202"/>
+    <n v="625000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="203"/>
+    <n v="775000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="204"/>
+    <n v="303500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="205"/>
+    <n v="2000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="206"/>
+    <n v="300000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="207"/>
+    <n v="305500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="208"/>
+    <n v="3000000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="209"/>
+    <n v="300000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="210"/>
+    <n v="1500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="211"/>
+    <n v="300000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="212"/>
+    <n v="301000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="213"/>
+    <n v="450000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="214"/>
+    <n v="2750000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="215"/>
+    <n v="4500000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="216"/>
+    <n v="900000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="217"/>
+    <n v="11000000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="218"/>
+    <n v="2750000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="219"/>
+    <n v="311000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="220"/>
+    <n v="302500"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="221"/>
+    <n v="500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="222"/>
+    <n v="330000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="223"/>
+    <n v="500000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="224"/>
+    <n v="2700000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="225"/>
+    <n v="2525000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="226"/>
+    <n v="3000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="227"/>
+    <n v="1000000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="228"/>
+    <n v="4750000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="229"/>
+    <n v="2750000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="230"/>
+    <n v="325000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="231"/>
+    <n v="3400000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="232"/>
+    <n v="312500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="233"/>
+    <n v="330000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="234"/>
+    <n v="4150000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="235"/>
+    <n v="1750000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="236"/>
+    <n v="6000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="237"/>
+    <n v="315000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="238"/>
+    <n v="365000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="239"/>
+    <n v="450000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="240"/>
+    <n v="8750000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="241"/>
+    <n v="8000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="242"/>
+    <n v="340000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="243"/>
+    <n v="2000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="244"/>
+    <n v="325000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="245"/>
+    <n v="335000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="246"/>
+    <n v="700000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="247"/>
+    <n v="445000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="248"/>
+    <n v="8250000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="249"/>
+    <n v="315000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="250"/>
+    <n v="450000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="251"/>
+    <n v="375000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="252"/>
+    <n v="330000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="253"/>
+    <n v="1400000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="254"/>
+    <n v="675000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="255"/>
+    <n v="345000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="256"/>
+    <n v="4250000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="257"/>
+    <n v="6250000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="258"/>
+    <n v="4200000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="259"/>
+    <n v="500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="260"/>
+    <n v="330000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="261"/>
+    <n v="300000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="262"/>
+    <n v="9000000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="263"/>
+    <n v="325000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="264"/>
+    <n v="450000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="265"/>
+    <n v="320000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="266"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="267"/>
+    <n v="5000000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="268"/>
+    <n v="5000000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="269"/>
+    <n v="600000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="270"/>
+    <n v="325000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="271"/>
+    <n v="575000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="272"/>
+    <n v="3200000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="273"/>
+    <n v="314000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="274"/>
+    <n v="325000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="275"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="276"/>
+    <n v="303000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="277"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="278"/>
+    <n v="2150000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="279"/>
+    <n v="11850000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="280"/>
+    <n v="300000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="281"/>
+    <n v="315000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="282"/>
+    <n v="340000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="283"/>
+    <n v="305000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="284"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="285"/>
+    <n v="309000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="286"/>
+    <n v="1700000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="287"/>
+    <n v="8500000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="288"/>
+    <n v="2625000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="289"/>
+    <n v="2500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="290"/>
+    <n v="310000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="291"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="292"/>
+    <n v="307000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="293"/>
+    <n v="4500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="294"/>
+    <n v="305000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="295"/>
+    <n v="400000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="296"/>
+    <n v="360000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="297"/>
+    <n v="6750000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="298"/>
+    <n v="300000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="299"/>
+    <n v="8000000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="300"/>
+    <n v="500000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="301"/>
+    <n v="7416667"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="302"/>
+    <n v="400000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="303"/>
+    <n v="6725000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="304"/>
+    <n v="750000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="305"/>
+    <n v="1000000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="306"/>
+    <n v="425000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="307"/>
+    <n v="6875000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="308"/>
+    <n v="2500000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="309"/>
+    <n v="1800000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="310"/>
+    <n v="600000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="311"/>
+    <n v="4000000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="312"/>
+    <n v="302500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="313"/>
+    <n v="3150000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="314"/>
+    <n v="325000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="315"/>
+    <n v="6500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="316"/>
+    <n v="3983333"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="317"/>
+    <n v="7700000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="318"/>
+    <n v="440000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="319"/>
+    <n v="3500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="320"/>
+    <n v="8000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="321"/>
+    <n v="300000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="322"/>
+    <n v="4666667"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="323"/>
+    <n v="3500000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="324"/>
+    <n v="3300000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="325"/>
+    <n v="304000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="326"/>
+    <n v="331000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="327"/>
+    <n v="300000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="328"/>
+    <n v="3675000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="329"/>
+    <n v="1065000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="330"/>
+    <n v="11666667"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="331"/>
+    <n v="307500"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="332"/>
+    <n v="316000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="333"/>
+    <n v="6000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="334"/>
+    <n v="350000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="335"/>
+    <n v="750000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="336"/>
+    <n v="1750000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="337"/>
+    <n v="1887500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="338"/>
+    <n v="2700000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="339"/>
+    <n v="500000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="340"/>
+    <n v="335000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="341"/>
+    <n v="2175000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="342"/>
+    <n v="3216667"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="343"/>
+    <n v="334500"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="344"/>
+    <n v="2650000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="345"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="346"/>
+    <n v="322000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="347"/>
+    <n v="1700000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="348"/>
+    <n v="1200000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="349"/>
+    <n v="5125000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="350"/>
+    <n v="1000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="351"/>
+    <n v="302500"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="352"/>
+    <n v="300000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="353"/>
+    <n v="900000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="354"/>
+    <n v="1837500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="355"/>
+    <n v="9150000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="356"/>
+    <n v="600000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="357"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="358"/>
+    <n v="1000000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="359"/>
+    <n v="13000000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="360"/>
+    <n v="750000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="361"/>
+    <n v="7000000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="362"/>
+    <n v="750000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="363"/>
+    <n v="440000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="364"/>
+    <n v="302500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="365"/>
+    <n v="327500"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="366"/>
+    <n v="550000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="367"/>
+    <n v="9000000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="368"/>
+    <n v="13000000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="369"/>
+    <n v="1300000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="370"/>
+    <n v="3250000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="371"/>
+    <n v="22000000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="372"/>
+    <n v="600000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="373"/>
+    <n v="750000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="374"/>
+    <n v="1300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="375"/>
+    <n v="4500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="376"/>
+    <n v="2500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="377"/>
+    <n v="2500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="378"/>
+    <n v="1500000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="379"/>
+    <n v="415000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="380"/>
+    <n v="3366667"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="381"/>
+    <m/>
+    <x v="7"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8841EFBF-52C8-425D-89A2-B89E7A99F4A1}" name="PivotTable3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:J20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="16">
+        <item x="1"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item sd="0" x="12"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="383">
+        <item x="169"/>
+        <item x="0"/>
+        <item x="194"/>
+        <item x="246"/>
+        <item x="82"/>
+        <item x="28"/>
+        <item x="1"/>
+        <item x="170"/>
+        <item x="272"/>
+        <item x="29"/>
+        <item x="195"/>
+        <item x="83"/>
+        <item x="171"/>
+        <item x="84"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="196"/>
+        <item x="85"/>
+        <item x="113"/>
+        <item x="197"/>
+        <item x="273"/>
+        <item x="198"/>
+        <item x="172"/>
+        <item x="86"/>
+        <item x="351"/>
+        <item x="298"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="114"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="199"/>
+        <item x="247"/>
+        <item x="200"/>
+        <item x="55"/>
+        <item x="89"/>
+        <item x="327"/>
+        <item x="30"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="201"/>
+        <item x="173"/>
+        <item x="115"/>
+        <item x="328"/>
+        <item x="303"/>
+        <item x="352"/>
+        <item x="2"/>
+        <item x="304"/>
+        <item x="174"/>
+        <item x="248"/>
+        <item x="144"/>
+        <item x="3"/>
+        <item x="353"/>
+        <item x="145"/>
+        <item x="276"/>
+        <item x="175"/>
+        <item x="249"/>
+        <item x="116"/>
+        <item x="146"/>
+        <item x="220"/>
+        <item x="147"/>
+        <item x="56"/>
+        <item x="250"/>
+        <item x="305"/>
+        <item x="90"/>
+        <item x="117"/>
+        <item x="354"/>
+        <item x="202"/>
+        <item x="31"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="32"/>
+        <item x="331"/>
+        <item x="57"/>
+        <item x="148"/>
+        <item x="33"/>
+        <item x="118"/>
+        <item x="355"/>
+        <item x="203"/>
+        <item x="221"/>
+        <item x="332"/>
+        <item x="119"/>
+        <item x="222"/>
+        <item x="4"/>
+        <item x="149"/>
+        <item x="58"/>
+        <item x="333"/>
+        <item x="59"/>
+        <item x="306"/>
+        <item x="34"/>
+        <item x="356"/>
+        <item x="334"/>
+        <item x="307"/>
+        <item x="91"/>
+        <item x="357"/>
+        <item x="60"/>
+        <item x="251"/>
+        <item x="204"/>
+        <item x="277"/>
+        <item x="5"/>
+        <item x="61"/>
+        <item x="150"/>
+        <item x="35"/>
+        <item x="151"/>
+        <item x="358"/>
+        <item x="36"/>
+        <item x="252"/>
+        <item x="223"/>
+        <item x="62"/>
+        <item x="359"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="176"/>
+        <item x="205"/>
+        <item x="152"/>
+        <item x="224"/>
+        <item x="308"/>
+        <item x="92"/>
+        <item x="225"/>
+        <item x="93"/>
+        <item x="153"/>
+        <item x="335"/>
+        <item x="177"/>
+        <item x="120"/>
+        <item x="278"/>
+        <item x="6"/>
+        <item x="178"/>
+        <item x="206"/>
+        <item x="309"/>
+        <item x="336"/>
+        <item x="226"/>
+        <item x="154"/>
+        <item x="121"/>
+        <item x="155"/>
+        <item x="337"/>
+        <item x="207"/>
+        <item x="279"/>
+        <item x="63"/>
+        <item x="122"/>
+        <item x="7"/>
+        <item x="227"/>
+        <item x="64"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="338"/>
+        <item x="179"/>
+        <item x="228"/>
+        <item x="208"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="65"/>
+        <item x="8"/>
+        <item x="255"/>
+        <item x="339"/>
+        <item x="9"/>
+        <item x="209"/>
+        <item x="156"/>
+        <item x="229"/>
+        <item x="157"/>
+        <item x="10"/>
+        <item x="37"/>
+        <item x="180"/>
+        <item x="230"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="231"/>
+        <item x="362"/>
+        <item x="38"/>
+        <item x="94"/>
+        <item x="363"/>
+        <item x="11"/>
+        <item x="95"/>
+        <item x="232"/>
+        <item x="284"/>
+        <item x="258"/>
+        <item x="96"/>
+        <item x="181"/>
+        <item x="158"/>
+        <item x="364"/>
+        <item x="125"/>
+        <item x="12"/>
+        <item x="159"/>
+        <item x="340"/>
+        <item x="126"/>
+        <item x="259"/>
+        <item x="233"/>
+        <item x="341"/>
+        <item x="210"/>
+        <item x="127"/>
+        <item x="211"/>
+        <item x="160"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="310"/>
+        <item x="212"/>
+        <item x="285"/>
+        <item x="260"/>
+        <item x="182"/>
+        <item x="311"/>
+        <item x="68"/>
+        <item x="312"/>
+        <item x="13"/>
+        <item x="161"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="234"/>
+        <item x="183"/>
+        <item x="97"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="342"/>
+        <item x="365"/>
+        <item x="69"/>
+        <item x="343"/>
+        <item x="235"/>
+        <item x="70"/>
+        <item x="128"/>
+        <item x="236"/>
+        <item x="71"/>
+        <item x="237"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="14"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="315"/>
+        <item x="72"/>
+        <item x="344"/>
+        <item x="98"/>
+        <item x="286"/>
+        <item x="15"/>
+        <item x="129"/>
+        <item x="99"/>
+        <item x="316"/>
+        <item x="345"/>
+        <item x="366"/>
+        <item x="73"/>
+        <item x="317"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="184"/>
+        <item x="74"/>
+        <item x="41"/>
+        <item x="16"/>
+        <item x="42"/>
+        <item x="367"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="368"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="289"/>
+        <item x="263"/>
+        <item x="290"/>
+        <item x="43"/>
+        <item x="369"/>
+        <item x="75"/>
+        <item x="17"/>
+        <item x="130"/>
+        <item x="100"/>
+        <item x="346"/>
+        <item x="238"/>
+        <item x="318"/>
+        <item x="131"/>
+        <item x="164"/>
+        <item x="18"/>
+        <item x="370"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="44"/>
+        <item x="76"/>
+        <item x="215"/>
+        <item x="241"/>
+        <item x="216"/>
+        <item x="319"/>
+        <item x="347"/>
+        <item x="264"/>
+        <item x="101"/>
+        <item x="242"/>
+        <item x="19"/>
+        <item x="165"/>
+        <item x="371"/>
+        <item x="102"/>
+        <item x="45"/>
+        <item x="243"/>
+        <item x="187"/>
+        <item x="244"/>
+        <item x="291"/>
+        <item x="265"/>
+        <item x="166"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="46"/>
+        <item x="245"/>
+        <item x="105"/>
+        <item x="292"/>
+        <item x="320"/>
+        <item x="47"/>
+        <item x="188"/>
+        <item x="167"/>
+        <item x="106"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="189"/>
+        <item x="372"/>
+        <item x="348"/>
+        <item x="321"/>
+        <item x="20"/>
+        <item x="190"/>
+        <item x="293"/>
+        <item x="107"/>
+        <item x="50"/>
+        <item x="294"/>
+        <item x="266"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="168"/>
+        <item x="322"/>
+        <item x="217"/>
+        <item x="134"/>
+        <item x="373"/>
+        <item x="349"/>
+        <item x="267"/>
+        <item x="374"/>
+        <item x="77"/>
+        <item x="108"/>
+        <item x="21"/>
+        <item x="218"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="191"/>
+        <item x="268"/>
+        <item x="377"/>
+        <item x="78"/>
+        <item x="192"/>
+        <item x="22"/>
+        <item x="109"/>
+        <item x="79"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="135"/>
+        <item x="80"/>
+        <item x="51"/>
+        <item x="23"/>
+        <item x="52"/>
+        <item x="24"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="110"/>
+        <item x="81"/>
+        <item x="269"/>
+        <item x="111"/>
+        <item x="25"/>
+        <item x="323"/>
+        <item x="26"/>
+        <item x="219"/>
+        <item x="138"/>
+        <item x="324"/>
+        <item x="53"/>
+        <item x="112"/>
+        <item x="139"/>
+        <item x="54"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="378"/>
+        <item x="297"/>
+        <item x="379"/>
+        <item x="193"/>
+        <item x="27"/>
+        <item x="380"/>
+        <item x="350"/>
+        <item x="381"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="9">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Salary" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2078,12 +5360,548 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20068725-EAD0-42AE-B4A0-A3894DA510BD}">
+  <dimension ref="A3:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>407</v>
+      </c>
+      <c r="J4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2082500</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5250000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>23725000</v>
+      </c>
+      <c r="E5" s="4">
+        <v>37304167</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2270000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1150000</v>
+      </c>
+      <c r="H5" s="4">
+        <v>7250000</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
+        <v>79031667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3830000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8375000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>22975000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>29142500</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>2850000</v>
+      </c>
+      <c r="H6" s="4">
+        <v>6705000</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
+        <v>73877500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5505000</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3250000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>33500000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>40109000</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3450000</v>
+      </c>
+      <c r="G7" s="4">
+        <v>11625000</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2507500</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
+        <v>99946500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1325000</v>
+      </c>
+      <c r="C8" s="4">
+        <v>11700000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>18970000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>17680000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>675000</v>
+      </c>
+      <c r="G8" s="4">
+        <v>345000</v>
+      </c>
+      <c r="H8" s="4">
+        <v>315000</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
+        <v>51010000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="4">
+        <v>702100</v>
+      </c>
+      <c r="C9" s="4">
+        <v>605200</v>
+      </c>
+      <c r="D9" s="4">
+        <v>15730967</v>
+      </c>
+      <c r="E9" s="4">
+        <v>20859600</v>
+      </c>
+      <c r="F9" s="4">
+        <v>325000</v>
+      </c>
+      <c r="G9" s="4">
+        <v>10031967</v>
+      </c>
+      <c r="H9" s="4">
+        <v>330000</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
+        <v>48584834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" s="4">
+        <v>715000</v>
+      </c>
+      <c r="C10" s="4">
+        <v>310000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>19265000</v>
+      </c>
+      <c r="E10" s="4">
+        <v>13296000</v>
+      </c>
+      <c r="F10" s="4">
+        <v>307000</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2450000</v>
+      </c>
+      <c r="H10" s="4">
+        <v>12825000</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
+        <v>49168000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3375000</v>
+      </c>
+      <c r="C11" s="4">
+        <v>11300000</v>
+      </c>
+      <c r="D11" s="4">
+        <v>12663500</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6402500</v>
+      </c>
+      <c r="F11" s="4">
+        <v>775000</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1502000</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4500000</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
+        <v>40518000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1127500</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1750000</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8442500</v>
+      </c>
+      <c r="E12" s="4">
+        <v>36420000</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1340000</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3025000</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3400000</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
+        <v>55505000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
+        <v>8750000</v>
+      </c>
+      <c r="C13" s="4">
+        <v>11792671</v>
+      </c>
+      <c r="D13" s="4">
+        <v>34257143</v>
+      </c>
+      <c r="E13" s="4">
+        <v>74350000</v>
+      </c>
+      <c r="F13" s="4">
+        <v>800000</v>
+      </c>
+      <c r="G13" s="4">
+        <v>16300000</v>
+      </c>
+      <c r="H13" s="4">
+        <v>6500000</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
+        <v>152749814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4137500</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1065000</v>
+      </c>
+      <c r="D14" s="4">
+        <v>15691667</v>
+      </c>
+      <c r="E14" s="4">
+        <v>19602667</v>
+      </c>
+      <c r="F14" s="4">
+        <v>334500</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5432500</v>
+      </c>
+      <c r="H14" s="4">
+        <v>3997000</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
+        <v>50260834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="C15" s="4">
+        <v>13050000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>15683334</v>
+      </c>
+      <c r="E15" s="4">
+        <v>32550833</v>
+      </c>
+      <c r="F15" s="4">
+        <v>11450000</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2500000</v>
+      </c>
+      <c r="H15" s="4">
+        <v>6725000</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
+        <v>86959167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="4">
+        <v>600000</v>
+      </c>
+      <c r="C16" s="4">
+        <v>500000</v>
+      </c>
+      <c r="D16" s="4">
+        <v>6400000</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3825000</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="G16" s="4">
+        <v>6500000</v>
+      </c>
+      <c r="H16" s="4">
+        <v>625000</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
+        <v>19650000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3337500</v>
+      </c>
+      <c r="C17" s="4">
+        <v>9000000</v>
+      </c>
+      <c r="D17" s="4">
+        <v>31077500</v>
+      </c>
+      <c r="E17" s="4">
+        <v>34569167</v>
+      </c>
+      <c r="F17" s="4">
+        <v>300000</v>
+      </c>
+      <c r="G17" s="4">
+        <v>22415000</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2792500</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
+        <v>103491667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1729000</v>
+      </c>
+      <c r="C18" s="4">
+        <v>19020000</v>
+      </c>
+      <c r="D18" s="4">
+        <v>8920000</v>
+      </c>
+      <c r="E18" s="4">
+        <v>18212000</v>
+      </c>
+      <c r="F18" s="4">
+        <v>313000</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2475000</v>
+      </c>
+      <c r="H18" s="4">
+        <v>600000</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
+        <v>51269000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B20" s="4">
+        <v>42216100</v>
+      </c>
+      <c r="C20" s="4">
+        <v>96967871</v>
+      </c>
+      <c r="D20" s="4">
+        <v>267301611</v>
+      </c>
+      <c r="E20" s="4">
+        <v>384323434</v>
+      </c>
+      <c r="F20" s="4">
+        <v>23539500</v>
+      </c>
+      <c r="G20" s="4">
+        <v>88601467</v>
+      </c>
+      <c r="H20" s="4">
+        <v>59072000</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
+        <v>962021983</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="A1:A1048576 D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
